--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="527">
   <si>
     <t>Property</t>
   </si>
@@ -601,9 +601,6 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
@@ -895,6 +892,9 @@
     <t>MEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類2．身体計測の「焦点」</t>
   </si>
   <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCategory_VS</t>
+  </si>
+  <si>
     <t>Observation.category:bodyMeasurementCategory.id</t>
   </si>
   <si>
@@ -902,9 +902,6 @@
   </si>
   <si>
     <t>Observation.category:bodyMeasurementCategory.coding</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCategory_VS</t>
   </si>
   <si>
     <t>Observation.category:bodyMeasurementCategory.coding.id</t>
@@ -3725,7 +3722,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
@@ -3740,19 +3737,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3781,20 +3778,20 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>187</v>
@@ -3821,10 +3818,10 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -3832,13 +3829,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
@@ -3860,19 +3857,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3897,11 +3894,11 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3943,10 +3940,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3954,10 +3951,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3980,13 +3977,13 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4037,7 +4034,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4061,7 +4058,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4072,10 +4069,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4104,7 +4101,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4145,19 +4142,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4181,7 +4178,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4192,10 +4189,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4218,19 +4215,19 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4255,11 +4252,13 @@
         <v>83</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>83</v>
@@ -4277,7 +4276,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4298,10 +4297,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4312,10 +4311,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4338,13 +4337,13 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4395,7 +4394,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4419,7 +4418,7 @@
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4430,10 +4429,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4462,7 +4461,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4503,19 +4502,19 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AD21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4539,7 +4538,7 @@
         <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4550,10 +4549,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4579,65 +4578,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4658,10 +4657,10 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -4672,10 +4671,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4698,16 +4697,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4757,7 +4756,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4778,10 +4777,10 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -4792,10 +4791,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4821,63 +4820,63 @@
         <v>114</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4898,10 +4897,10 @@
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -4912,10 +4911,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4938,17 +4937,17 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4997,7 +4996,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5018,10 +5017,10 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -5032,10 +5031,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5058,19 +5057,19 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5119,7 +5118,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5140,10 +5139,10 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5154,10 +5153,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5180,19 +5179,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5241,7 +5240,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5262,10 +5261,10 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5276,20 +5275,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
@@ -5304,19 +5303,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5345,7 +5344,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5387,10 +5386,10 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5401,7 +5400,7 @@
         <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5424,13 +5423,13 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5481,7 +5480,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5505,7 +5504,7 @@
         <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5519,7 +5518,7 @@
         <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5548,7 +5547,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -5589,19 +5588,19 @@
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC30" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC30" t="s" s="2">
+      <c r="AD30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5625,7 +5624,7 @@
         <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5639,7 +5638,7 @@
         <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5662,19 +5661,19 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5699,11 +5698,13 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5721,7 +5722,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5742,10 +5743,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5756,10 +5757,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5782,13 +5783,13 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5839,7 +5840,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5863,7 +5864,7 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5874,10 +5875,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5906,7 +5907,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -5947,19 +5948,19 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC33" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC33" t="s" s="2">
+      <c r="AD33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5983,7 +5984,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -5994,10 +5995,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6023,16 +6024,16 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6042,7 +6043,7 @@
         <v>83</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>83</v>
@@ -6081,7 +6082,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6102,10 +6103,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6116,10 +6117,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6142,16 +6143,16 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6201,7 +6202,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6222,10 +6223,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6236,10 +6237,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6265,14 +6266,14 @@
         <v>114</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6321,7 +6322,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6342,10 +6343,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6356,10 +6357,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6382,17 +6383,17 @@
         <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6441,7 +6442,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6462,10 +6463,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6476,10 +6477,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6502,19 +6503,19 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6563,7 +6564,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6584,10 +6585,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6598,10 +6599,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6624,19 +6625,19 @@
         <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6685,7 +6686,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6706,10 +6707,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6720,14 +6721,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6746,19 +6747,19 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6787,7 +6788,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6805,7 +6806,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>94</v>
@@ -6820,30 +6821,30 @@
         <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6866,19 +6867,19 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6927,7 +6928,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6942,19 +6943,19 @@
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>83</v>
@@ -6962,10 +6963,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6988,16 +6989,16 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7047,7 +7048,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7068,13 +7069,13 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
@@ -7082,14 +7083,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7108,19 +7109,19 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7169,7 +7170,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7184,19 +7185,19 @@
         <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7204,14 +7205,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7230,19 +7231,19 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7291,7 +7292,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7306,19 +7307,19 @@
         <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7326,10 +7327,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7352,16 +7353,16 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7411,7 +7412,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7432,13 +7433,13 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7446,10 +7447,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7472,19 +7473,19 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7533,7 +7534,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7548,19 +7549,19 @@
         <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7568,10 +7569,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7594,19 +7595,19 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7655,7 +7656,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7664,7 +7665,7 @@
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7673,27 +7674,27 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7716,19 +7717,19 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7753,14 +7754,14 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7786,7 +7787,7 @@
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -7801,7 +7802,7 @@
         <v>137</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7812,14 +7813,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7838,19 +7839,19 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7875,14 +7876,14 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7917,27 +7918,27 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7960,19 +7961,19 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8021,7 +8022,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8042,10 +8043,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8056,10 +8057,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8082,16 +8083,16 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8117,14 +8118,14 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8159,27 +8160,27 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8202,19 +8203,19 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8239,14 +8240,14 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8284,10 +8285,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8298,10 +8299,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8324,16 +8325,16 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8383,7 +8384,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8401,27 +8402,27 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8444,16 +8445,16 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8503,7 +8504,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8521,27 +8522,27 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8564,19 +8565,19 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8625,7 +8626,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8637,19 +8638,19 @@
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8660,10 +8661,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8686,13 +8687,13 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8743,7 +8744,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8767,7 +8768,7 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8778,10 +8779,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8810,7 +8811,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -8863,7 +8864,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8887,7 +8888,7 @@
         <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8898,14 +8899,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8927,10 +8928,10 @@
         <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>143</v>
@@ -8985,7 +8986,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9020,10 +9021,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9046,13 +9047,13 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9103,7 +9104,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9112,7 +9113,7 @@
         <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>106</v>
@@ -9124,10 +9125,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9138,10 +9139,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9164,13 +9165,13 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9221,7 +9222,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9230,7 +9231,7 @@
         <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>106</v>
@@ -9242,10 +9243,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9256,10 +9257,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9282,19 +9283,19 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9322,11 +9323,11 @@
         <v>118</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9361,13 +9362,13 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM61" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AN61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9378,10 +9379,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9404,19 +9405,19 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9441,14 +9442,14 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9483,13 +9484,13 @@
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9500,10 +9501,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9526,17 +9527,17 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9585,7 +9586,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9609,7 +9610,7 @@
         <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9620,10 +9621,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9646,13 +9647,13 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9703,7 +9704,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9724,10 +9725,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9738,10 +9739,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9764,16 +9765,16 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9823,7 +9824,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9844,10 +9845,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -9858,10 +9859,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9884,16 +9885,16 @@
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9943,7 +9944,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9964,10 +9965,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -9978,10 +9979,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10004,19 +10005,19 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10065,7 +10066,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10086,10 +10087,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10100,10 +10101,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10126,13 +10127,13 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10183,7 +10184,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10207,7 +10208,7 @@
         <v>83</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10218,10 +10219,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10250,7 +10251,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10303,7 +10304,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10327,7 +10328,7 @@
         <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10338,14 +10339,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10367,10 +10368,10 @@
         <v>140</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>143</v>
@@ -10425,7 +10426,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10460,10 +10461,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10486,19 +10487,19 @@
         <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="O71" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10523,14 +10524,14 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
       </c>
@@ -10547,7 +10548,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>94</v>
@@ -10565,16 +10566,16 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>83</v>
@@ -10582,10 +10583,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10608,19 +10609,19 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="O72" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10669,7 +10670,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10687,27 +10688,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10730,19 +10731,19 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="O73" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -10767,14 +10768,14 @@
         <v>83</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
       </c>
@@ -10791,7 +10792,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10800,7 +10801,7 @@
         <v>94</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>106</v>
@@ -10815,7 +10816,7 @@
         <v>137</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -10826,14 +10827,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10852,19 +10853,19 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -10889,14 +10890,14 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
       </c>
@@ -10913,7 +10914,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10931,27 +10932,27 @@
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10977,16 +10978,16 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11035,7 +11036,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11056,10 +11057,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
